--- a/01.用件定義/CODA_FM.xlsx
+++ b/01.用件定義/CODA_FM.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA _DOCUMENT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kakuda/iret/labo/CODA/CODA_DOCUMENT/01.用件定義/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A58C7-502C-394B-9A04-F42B60CA88EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA60922-3EAF-3046-84B2-DEBC4DB7A7E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35780" yWindow="5260" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{D6E27A40-0284-5846-98B0-B55F7FCB5BC4}"/>
+    <workbookView xWindow="-29440" yWindow="3500" windowWidth="28800" windowHeight="15880" activeTab="1" xr2:uid="{D6E27A40-0284-5846-98B0-B55F7FCB5BC4}"/>
   </bookViews>
   <sheets>
     <sheet name="FM" sheetId="1" r:id="rId1"/>
@@ -116,96 +116,9 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・ユーザーがサービスで使用したい譜面をアップロードすることができる
-■他機能との関係
-&lt;臨時記号情報付与&gt;
-・当機能でアップロードしたファイルに対して臨時記号情報の付与を行えるようにする
-&lt;変え指情報付与&gt;
-・当機能でアップロードしたファイルに対して変え指情報の付与を行えるようにする
-&lt;表現記号情報付与&gt;
-・当機能でアップロードしたファイルに対して表現記号情報の付与を行えるようにする
-■対応するファイル形式
-・pdf
-・png
-・jpeg</t>
-    <rPh sb="11" eb="13">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>フメn</t>
-    </rPh>
-    <rPh sb="36" eb="37">
-      <t>ホカ</t>
-    </rPh>
-    <rPh sb="37" eb="39">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="41" eb="43">
-      <t>カンケイ</t>
-    </rPh>
-    <rPh sb="45" eb="49">
-      <t>リンゼィ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="51" eb="53">
-      <t xml:space="preserve">フヨ </t>
-    </rPh>
-    <rPh sb="56" eb="59">
-      <t>トウキノ</t>
-    </rPh>
-    <rPh sb="76" eb="80">
-      <t>リンゼィ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="86" eb="87">
-      <t>オコナエ</t>
-    </rPh>
-    <rPh sb="96" eb="97">
-      <t>カエユ</t>
-    </rPh>
-    <rPh sb="145" eb="149">
-      <t>ヒョウ</t>
-    </rPh>
-    <rPh sb="197" eb="199">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>譜面ダウンロード</t>
     <rPh sb="0" eb="1">
       <t>フメn</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>・ユーザーが情報付与が行われた譜面をダウンロードすることができる
-■他機能との関係
-&lt;臨時記号情報付与&gt;
-・臨時記号情報が付与された譜面をダウンロードできるようにする
-&lt;変え指情報付与&gt;
-・変え指情報が付与された譜面をダウンロードできるようにする
-&lt;表現記号情報付与&gt;
-・表現記号情報が付与された譜面をダウンロードできるようにする
-■対応するファイル形式
-・pdf
-・png
-・jpeg</t>
-    <rPh sb="6" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>オコナワレ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>フメn</t>
-    </rPh>
-    <rPh sb="62" eb="64">
-      <t>カエユフヨサカエユフヨサフメnヒョウゲnジョウホウフヨスフメn</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -810,12 +723,169 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・ユーザーがサービスで使用したい譜面をアップロードすることができる
+■他機能との関係
+&lt;臨時記号情報付与&gt;
+・当機能でアップロードしたファイルに対して臨時記号情報の付与を行えるようにする
+&lt;変え指情報付与&gt;
+・当機能でアップロードしたファイルに対して変え指情報の付与を行えるようにする
+&lt;表現記号情報付与&gt;
+・当機能でアップロードしたファイルに対して表現記号情報の付与を行えるようにする
+■対応するファイル形式
+・pdf
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・jpeg</t>
+    </r>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>フメn</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ホカ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>カンケイ</t>
+    </rPh>
+    <rPh sb="45" eb="49">
+      <t>リンゼィ</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="51" eb="53">
+      <t xml:space="preserve">フヨ </t>
+    </rPh>
+    <rPh sb="56" eb="59">
+      <t>トウキノ</t>
+    </rPh>
+    <rPh sb="76" eb="80">
+      <t>リンゼィ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="86" eb="87">
+      <t>オコナエ</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>カエユ</t>
+    </rPh>
+    <rPh sb="145" eb="149">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="197" eb="199">
+      <t>タイオウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">・ユーザーが情報付与が行われた譜面をダウンロードすることができる
+■他機能との関係
+&lt;臨時記号情報付与&gt;
+・臨時記号情報が付与された譜面をダウンロードできるようにする
+&lt;変え指情報付与&gt;
+・変え指情報が付与された譜面をダウンロードできるようにする
+&lt;表現記号情報付与&gt;
+・表現記号情報が付与された譜面をダウンロードできるようにする
+■対応するファイル形式
+・pdf
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・png</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>・jpeg</t>
+    </r>
+    <rPh sb="6" eb="10">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナワレ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>フメn</t>
+    </rPh>
+    <rPh sb="62" eb="64">
+      <t>カエユフヨサカエユフヨサフメnヒョウゲnジョウホウフヨスフメn</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -906,6 +976,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1014,68 +1092,68 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1395,7 +1473,7 @@
   <dimension ref="B2:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C3" sqref="C3:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1430,54 +1508,54 @@
       </c>
     </row>
     <row r="3" spans="2:9" ht="20" customHeight="1">
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="26" t="str">
+      <c r="C3" s="18" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("譜面アップロード", FS!$B:$B, 0), "譜面
 アップロード")</f>
         <v>譜面
 アップロード</v>
       </c>
-      <c r="D3" s="26" t="str">
+      <c r="D3" s="18" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("譜面ダウンロード", FS!$B:$B, 0), "譜面
 ダウンロード")</f>
         <v>譜面
 ダウンロード</v>
       </c>
-      <c r="E3" s="26"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="32"/>
     </row>
     <row r="4" spans="2:9">
-      <c r="B4" s="23"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="19"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
     </row>
     <row r="5" spans="2:9">
-      <c r="B5" s="23"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
     </row>
     <row r="6" spans="2:9">
-      <c r="B6" s="23"/>
+      <c r="B6" s="17"/>
       <c r="C6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
@@ -1486,194 +1564,194 @@
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="2:9" ht="20" customHeight="1">
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="30" t="str">
+      <c r="C7" s="20" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("調号情報付与", FS!$B:$B, 0), "調号情報付与")</f>
         <v>調号情報付与</v>
       </c>
-      <c r="D7" s="28" t="str">
+      <c r="D7" s="21" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("臨時記号情報付与", FS!$B:$B, 0), "臨時記号
 情報付与")</f>
         <v>臨時記号
 情報付与</v>
       </c>
-      <c r="E7" s="31" t="str">
+      <c r="E7" s="35" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("変え指情報付与", FS!$B:$B, 0), "変え指
 情報付与")</f>
         <v>変え指
 情報付与</v>
       </c>
-      <c r="F7" s="29" t="str">
+      <c r="F7" s="34" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("表現記号情報付与", FS!$B:$B, 0), "表現記号
 情報付与")</f>
         <v>表現記号
 情報付与</v>
       </c>
-      <c r="G7" s="30" t="str">
+      <c r="G7" s="20" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("譜面削除", FS!$B:$B, 0), "譜面削除")</f>
         <v>譜面削除</v>
       </c>
-      <c r="H7" s="20"/>
-      <c r="I7" s="18"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="32"/>
     </row>
     <row r="8" spans="2:9">
-      <c r="B8" s="23"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
+      <c r="B8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
     </row>
     <row r="9" spans="2:9">
-      <c r="B9" s="23"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
+      <c r="B9" s="17"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
     </row>
     <row r="10" spans="2:9">
-      <c r="B10" s="23"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="2:9">
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="32" t="str">
+      <c r="C11" s="23" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("楽譜名編集", FS!$B:$B, 0), "楽譜名編集")</f>
         <v>楽譜名編集</v>
       </c>
-      <c r="D11" s="21" t="str">
+      <c r="D11" s="24" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("フォルダ管理", FS!$B:$B, 0), "フォルダ管理")</f>
         <v>フォルダ管理</v>
       </c>
-      <c r="E11" s="24" t="str">
+      <c r="E11" s="26" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("楽譜タグ編集", FS!$B:$B, 0), "楽譜タグ編集")</f>
         <v>楽譜タグ編集</v>
       </c>
-      <c r="F11" s="21" t="str">
+      <c r="F11" s="24" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("ソート機能", FS!$B:$B, 0), "ソート機能")</f>
         <v>ソート機能</v>
       </c>
-      <c r="G11" s="21" t="str">
+      <c r="G11" s="24" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("フィルタ機能", FS!$B:$B, 0), "フィルタ機能")</f>
         <v>フィルタ機能</v>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="29" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("作成日時表示", FS!$B:$B, 0), "作成日時表示")</f>
         <v>作成日時表示</v>
       </c>
-      <c r="I11" s="16" t="str">
+      <c r="I11" s="29" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("更新日時表示", FS!$B:$B, 0), "更新日時表示")</f>
         <v>更新日時表示</v>
       </c>
     </row>
     <row r="12" spans="2:9">
-      <c r="B12" s="23"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
     </row>
     <row r="13" spans="2:9">
-      <c r="B13" s="23"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="34"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="17"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="2:9">
-      <c r="B14" s="23"/>
+      <c r="B14" s="17"/>
       <c r="C14" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>37</v>
-      </c>
       <c r="I14" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="2:9">
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="24" t="str">
+      <c r="C15" s="26" t="str">
         <f>HYPERLINK("#FS!B"&amp;MATCH("ユーザー管理", FS!$B:$B, 0), "ユーザー管理")</f>
         <v>ユーザー管理</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="18"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="32"/>
     </row>
     <row r="16" spans="2:9">
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
+      <c r="B16" s="17"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
     </row>
     <row r="17" spans="2:9">
-      <c r="B17" s="23"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
+      <c r="B17" s="17"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
     </row>
     <row r="18" spans="2:9">
-      <c r="B18" s="23"/>
+      <c r="B18" s="17"/>
       <c r="C18" s="12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
@@ -1684,16 +1762,12 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="D3:D5"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="D11:D13"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="H15:H17"/>
+    <mergeCell ref="H7:H9"/>
     <mergeCell ref="G11:G13"/>
     <mergeCell ref="H11:H13"/>
     <mergeCell ref="B15:B18"/>
@@ -1710,12 +1784,16 @@
     <mergeCell ref="G7:G9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="B11:B14"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I3:I5"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="H15:H17"/>
-    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -1729,8 +1807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E656733D-4E2E-E745-9AB3-C31876FCA3DF}">
   <dimension ref="B2:D17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1756,63 +1834,63 @@
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="283" customHeight="1">
       <c r="B4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="262" customHeight="1">
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>15</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="262" customHeight="1">
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="206" customHeight="1">
       <c r="B7" s="13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="184" customHeight="1">
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="184" customHeight="1">
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="154" customHeight="1">
       <c r="B10" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="124" customHeight="1">
@@ -1820,15 +1898,15 @@
         <v>4</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="184" customHeight="1">
       <c r="B12" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="123" customHeight="1">
@@ -1836,15 +1914,15 @@
         <v>5</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="106" customHeight="1">
       <c r="B14" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="105" customHeight="1">
@@ -1852,15 +1930,15 @@
         <v>3</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="105" customHeight="1">
       <c r="B16" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="2:3" ht="159" customHeight="1">
@@ -1868,7 +1946,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
